--- a/merise/exercice/Editeur/Classeur1.xlsx
+++ b/merise/exercice/Editeur/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4110fdd0bc7ab70f/Documents/GitHub/DWWM_2005/merise/exercice/Editeur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDBDE02-4A18-455E-8BA1-D033C195D359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{0EDBDE02-4A18-455E-8BA1-D033C195D359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAF92171-A4B1-43DD-84DE-C2C2A054B224}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32E50744-AC2D-4AAD-85D0-8E20839A420E}"/>
   </bookViews>
@@ -78,8 +78,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,7 +104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -145,7 +153,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +476,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="2"/>
@@ -884,7 +895,7 @@
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>1</v>
       </c>
       <c r="C19" s="2"/>
@@ -923,7 +934,7 @@
       <c r="B21" s="8">
         <v>1</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>1</v>
       </c>
       <c r="D21" s="2"/>
@@ -945,7 +956,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="G22" s="2"/>
@@ -961,7 +972,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <v>1</v>
       </c>
       <c r="F23" s="2"/>
@@ -978,7 +989,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="2"/>
@@ -1020,7 +1031,7 @@
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
       <c r="C27" s="8">
@@ -1048,7 +1059,7 @@
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>1</v>
       </c>
       <c r="D28" s="2"/>
